--- a/AfDD_DDAf_2022_CntryPaysCodes.xlsx
+++ b/AfDD_DDAf_2022_CntryPaysCodes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2022_CntryPaysCodes" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
     <t>ECOWAS</t>
   </si>
   <si>
-    <t>CEDEA</t>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>206</t>

--- a/AfDD_DDAf_2022_CntryPaysCodes.xlsx
+++ b/AfDD_DDAf_2022_CntryPaysCodes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2022_CntryPaysCodes" sheetId="1" r:id="rId1"/>
@@ -717,7 +717,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>CAF</t>
@@ -747,10 +747,10 @@
     <t>CHL</t>
   </si>
   <si>
-    <t>Chile*</t>
-  </si>
-  <si>
-    <t>Chili*</t>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Chili</t>
   </si>
   <si>
     <t>CHN</t>
@@ -780,10 +780,10 @@
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
-  </si>
-  <si>
-    <t>RD Congo*</t>
+    <t>DR Congo</t>
+  </si>
+  <si>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>COG</t>
@@ -1014,7 +1014,7 @@
     <t>GHA</t>
   </si>
   <si>
-    <t>Ghana*</t>
+    <t>Ghana</t>
   </si>
   <si>
     <t>GIN</t>
@@ -1080,7 +1080,7 @@
     <t>GUY</t>
   </si>
   <si>
-    <t>Guyana*</t>
+    <t>Guyana</t>
   </si>
   <si>
     <t>HND</t>
@@ -1608,10 +1608,10 @@
     <t>PNG</t>
   </si>
   <si>
-    <t>Papua New Guinea*</t>
-  </si>
-  <si>
-    <t>Papouasie-Nouvelle-Guinée*</t>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Papouasie-Nouvelle-Guinée</t>
   </si>
   <si>
     <t>POL</t>
@@ -1761,10 +1761,10 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan*</t>
-  </si>
-  <si>
-    <t>Soudan du Sud*</t>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>STP</t>
@@ -1842,7 +1842,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>THA</t>
@@ -1875,7 +1875,7 @@
     <t>TLS</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
+    <t>Timor-Leste*</t>
   </si>
   <si>
     <t>TON</t>
@@ -2019,10 +2019,10 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia*</t>
-  </si>
-  <si>
-    <t>Zambie*</t>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>

--- a/AfDD_DDAf_2022_CntryPaysCodes.xlsx
+++ b/AfDD_DDAf_2022_CntryPaysCodes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2022_CntryPaysCodes" sheetId="1" r:id="rId1"/>

--- a/AfDD_DDAf_2022_CntryPaysCodes.xlsx
+++ b/AfDD_DDAf_2022_CntryPaysCodes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2022_CntryPaysCodes" sheetId="1" r:id="rId1"/>

--- a/AfDD_DDAf_2022_CntryPaysCodes.xlsx
+++ b/AfDD_DDAf_2022_CntryPaysCodes.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2022_CntryPaysCodes" sheetId="1" r:id="rId1"/>

--- a/AfDD_DDAf_2022_CntryPaysCodes.xlsx
+++ b/AfDD_DDAf_2022_CntryPaysCodes.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2022_CntryPaysCodes" sheetId="1" r:id="rId1"/>

--- a/AfDD_DDAf_2022_CntryPaysCodes.xlsx
+++ b/AfDD_DDAf_2022_CntryPaysCodes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2022_CntryPaysCodes" sheetId="1" r:id="rId1"/>

--- a/AfDD_DDAf_2022_CntryPaysCodes.xlsx
+++ b/AfDD_DDAf_2022_CntryPaysCodes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="AfDD_DDAf_2022_CntryPaysCodes" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
     <t>High income (no LAC)</t>
   </si>
   <si>
-    <t>Pays à revenu élévé (ALC exclus)</t>
+    <t>Pays à revenu élevé (ALC exclus)</t>
   </si>
   <si>
     <t>190</t>

--- a/AfDD_DDAf_2022_CntryPaysCodes.xlsx
+++ b/AfDD_DDAf_2022_CntryPaysCodes.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
-    <sheet name="AfDD_DDAf_2022_CntryPaysCodes" sheetId="1" r:id="rId1"/>
+    <sheet name="AfDD_DDAf_2023_CntryPaysCodes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AfDD_DDAf_2022_CntryPaysCodes!$A$1:$C$248</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AfDD_DDAf_2023_CntryPaysCodes!$A$1:$C$248</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="668">
   <si>
     <t>CntryCode</t>
   </si>
@@ -1905,10 +1905,7 @@
     <t>TUR</t>
   </si>
   <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turquie</t>
+    <t>Türkiye</t>
   </si>
   <si>
     <t>TUV</t>
@@ -4916,183 +4913,183 @@
         <v>627</v>
       </c>
       <c r="C232" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
+        <v>628</v>
+      </c>
+      <c r="B233" t="s">
         <v>629</v>
       </c>
-      <c r="B233" t="s">
-        <v>630</v>
-      </c>
       <c r="C233" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
+        <v>630</v>
+      </c>
+      <c r="B234" t="s">
         <v>631</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
         <v>632</v>
-      </c>
-      <c r="C234" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
+        <v>633</v>
+      </c>
+      <c r="B235" t="s">
         <v>634</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
         <v>635</v>
-      </c>
-      <c r="C235" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
+        <v>636</v>
+      </c>
+      <c r="B236" t="s">
         <v>637</v>
       </c>
-      <c r="B236" t="s">
-        <v>638</v>
-      </c>
       <c r="C236" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
+        <v>638</v>
+      </c>
+      <c r="B237" t="s">
         <v>639</v>
       </c>
-      <c r="B237" t="s">
-        <v>640</v>
-      </c>
       <c r="C237" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
+        <v>640</v>
+      </c>
+      <c r="B238" t="s">
         <v>641</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>642</v>
-      </c>
-      <c r="C238" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
+        <v>643</v>
+      </c>
+      <c r="B239" t="s">
         <v>644</v>
       </c>
-      <c r="B239" t="s">
+      <c r="C239" t="s">
         <v>645</v>
-      </c>
-      <c r="C239" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
+        <v>646</v>
+      </c>
+      <c r="B240" t="s">
         <v>647</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C240" t="s">
         <v>648</v>
-      </c>
-      <c r="C240" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
+        <v>649</v>
+      </c>
+      <c r="B241" t="s">
         <v>650</v>
       </c>
-      <c r="B241" t="s">
-        <v>651</v>
-      </c>
       <c r="C241" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
+        <v>651</v>
+      </c>
+      <c r="B242" t="s">
         <v>652</v>
       </c>
-      <c r="B242" t="s">
-        <v>653</v>
-      </c>
       <c r="C242" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
+        <v>653</v>
+      </c>
+      <c r="B243" t="s">
         <v>654</v>
       </c>
-      <c r="B243" t="s">
-        <v>655</v>
-      </c>
       <c r="C243" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
+        <v>655</v>
+      </c>
+      <c r="B244" t="s">
         <v>656</v>
       </c>
-      <c r="B244" t="s">
-        <v>657</v>
-      </c>
       <c r="C244" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
+        <v>657</v>
+      </c>
+      <c r="B245" t="s">
         <v>658</v>
       </c>
-      <c r="B245" t="s">
+      <c r="C245" t="s">
         <v>659</v>
-      </c>
-      <c r="C245" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
+        <v>660</v>
+      </c>
+      <c r="B246" t="s">
         <v>661</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" t="s">
         <v>662</v>
-      </c>
-      <c r="C246" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
+        <v>663</v>
+      </c>
+      <c r="B247" t="s">
         <v>664</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C247" t="s">
         <v>665</v>
-      </c>
-      <c r="C247" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
+        <v>666</v>
+      </c>
+      <c r="B248" t="s">
         <v>667</v>
       </c>
-      <c r="B248" t="s">
-        <v>668</v>
-      </c>
       <c r="C248" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
